--- a/slippymap/TestTileXYZtoGpsCoords.xlsx
+++ b/slippymap/TestTileXYZtoGpsCoords.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikenye/Development/go/pw-slippymap/slippymap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB4ED70-2B51-284D-8262-3A23914F41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BAB4B6-972F-2146-BFDF-3F477C3ED8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="10420" windowHeight="11260" xr2:uid="{9DF1EB83-8AA2-AC4B-A376-C270E2E0DA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,7 +408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC67485-7D03-9B4F-BC64-DF4024CF5E01}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -420,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>26929</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -428,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>191</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -436,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -445,7 +447,7 @@
       </c>
       <c r="C6">
         <f>2^C4</f>
-        <v>256</v>
+        <v>32768</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -454,7 +456,7 @@
       </c>
       <c r="C7">
         <f>ROUND(C2/C6*360-180,7)</f>
-        <v>-91.40625</v>
+        <v>115.8508301</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -463,7 +465,7 @@
       </c>
       <c r="C8">
         <f>ATAN(SINH(PI()*(1-2*C3/C6)))</f>
-        <v>-1.1509830625674593</v>
+        <v>-0.55767043418493578</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -472,7 +474,7 @@
       </c>
       <c r="C9">
         <f>ROUND(C8*180/PI(),7)</f>
-        <v>-65.946471799999998</v>
+        <v>-31.9521622</v>
       </c>
     </row>
   </sheetData>
